--- a/mbs-perturbation/bottleneck/multinomialNB/smote/bottleneck-multinomialNB-smote-results.xlsx
+++ b/mbs-perturbation/bottleneck/multinomialNB/smote/bottleneck-multinomialNB-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5092348284960422</v>
+        <v>0.6556776556776557</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5162790697674419</v>
+        <v>0.7156070120355835</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4339383813068023</v>
+        <v>0.7043468190766842</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5162790697674419</v>
+        <v>0.7156070120355834</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6146496815286624</v>
+        <v>0.8531073446327684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6674418604651162</v>
+        <v>0.8185374149659864</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6488272348785544</v>
+        <v>0.8180286712507456</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6674418604651163</v>
+        <v>0.8185374149659864</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6</v>
+        <v>0.7902439024390244</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6511627906976744</v>
+        <v>0.805690737833595</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6267361111111112</v>
+        <v>0.8055235602094242</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6511627906976745</v>
+        <v>0.8056907378335951</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.684931506849315</v>
+        <v>0.794392523364486</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7511627906976743</v>
+        <v>0.8236525379382522</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7429192438998495</v>
+        <v>0.8231546241732599</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7511627906976743</v>
+        <v>0.8236525379382522</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6055900621118012</v>
+        <v>0.9559748427672956</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6581395348837209</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6355743120535482</v>
+        <v>0.8706930850640566</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6581395348837209</v>
+        <v>0.8717948717948718</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6028812157971642</v>
+        <v>0.809879253776246</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6488372093023255</v>
+        <v>0.8070565149136577</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6175990566499732</v>
+        <v>0.8043493519548341</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6488372093023255</v>
+        <v>0.8070565149136577</v>
       </c>
     </row>
   </sheetData>
